--- a/data/mall-cloud-alibaba/order-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/order-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="340">
   <si>
     <t>Class Name</t>
   </si>
@@ -696,223 +696,235 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>proofPics</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>handleMan</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>receiveNote</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>handleNote</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>receiveMan</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>returnAmount</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>receiveTime</t>
+  </si>
+  <si>
+    <t>companyAddressId</t>
+  </si>
+  <si>
     <t>productAttr</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>productPrice</t>
-  </si>
-  <si>
-    <t>handleMan</t>
-  </si>
-  <si>
-    <t>receiveTime</t>
+    <t>handleTime</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>createTime</t>
   </si>
   <si>
     <t>returnPhone</t>
   </si>
   <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>handleNote</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>receiveNote</t>
-  </si>
-  <si>
-    <t>companyAddressId</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>receiveMan</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>handleTime</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>returnAmount</t>
-  </si>
-  <si>
-    <t>productBrand</t>
+    <t>integrationAmount</t>
+  </si>
+  <si>
+    <t>billHeader</t>
+  </si>
+  <si>
+    <t>receiverRegion</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>deliveryCompany</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>confirmStatus</t>
+  </si>
+  <si>
+    <t>deliveryTime</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>billReceiverPhone</t>
+  </si>
+  <si>
+    <t>deleteStatus</t>
+  </si>
+  <si>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>billReceiverEmail</t>
+  </si>
+  <si>
+    <t>receiverCity</t>
+  </si>
+  <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
+    <t>paymentTime</t>
+  </si>
+  <si>
+    <t>billContent</t>
+  </si>
+  <si>
+    <t>useIntegration</t>
+  </si>
+  <si>
+    <t>payAmount</t>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+  </si>
+  <si>
+    <t>autoConfirmDay</t>
+  </si>
+  <si>
+    <t>receiverPostCode</t>
+  </si>
+  <si>
+    <t>deliverySn</t>
   </si>
   <si>
     <t>receiverPhone</t>
   </si>
   <si>
-    <t>deliveryCompany</t>
-  </si>
-  <si>
-    <t>receiverName</t>
-  </si>
-  <si>
-    <t>paymentTime</t>
+    <t>payType</t>
   </si>
   <si>
     <t>modifyTime</t>
   </si>
   <si>
-    <t>autoConfirmDay</t>
-  </si>
-  <si>
-    <t>payType</t>
-  </si>
-  <si>
-    <t>receiverPostCode</t>
-  </si>
-  <si>
-    <t>billContent</t>
-  </si>
-  <si>
-    <t>promotionInfo</t>
+    <t>receiverProvince</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>promotionAmount</t>
   </si>
   <si>
     <t>integration</t>
   </si>
   <si>
-    <t>confirmStatus</t>
-  </si>
-  <si>
-    <t>useIntegration</t>
+    <t>billType</t>
   </si>
   <si>
     <t>commentTime</t>
   </si>
   <si>
-    <t>receiverProvince</t>
+    <t>receiverDetailAddress</t>
   </si>
   <si>
     <t>orderType</t>
   </si>
   <si>
-    <t>billType</t>
-  </si>
-  <si>
-    <t>receiverCity</t>
-  </si>
-  <si>
     <t>couponAmount</t>
   </si>
   <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
-    <t>deliveryTime</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>integrationAmount</t>
-  </si>
-  <si>
-    <t>promotionAmount</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
-    <t>sourceType</t>
-  </si>
-  <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>payAmount</t>
-  </si>
-  <si>
-    <t>receiverDetailAddress</t>
-  </si>
-  <si>
-    <t>receiverRegion</t>
-  </si>
-  <si>
-    <t>billHeader</t>
-  </si>
-  <si>
-    <t>billReceiverPhone</t>
-  </si>
-  <si>
-    <t>billReceiverEmail</t>
-  </si>
-  <si>
-    <t>deliverySn</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>deleteStatus</t>
+    <t>reduceAmount</t>
+  </si>
+  <si>
+    <t>promotionMessage</t>
   </si>
   <si>
     <t>realStock</t>
   </si>
   <si>
-    <t>promotionMessage</t>
-  </si>
-  <si>
-    <t>reduceAmount</t>
+    <t>giftGrowth</t>
+  </si>
+  <si>
+    <t>giftIntegration</t>
+  </si>
+  <si>
+    <t>realAmount</t>
+  </si>
+  <si>
+    <t>promotionName</t>
   </si>
   <si>
     <t>productSkuCode</t>
   </si>
   <si>
-    <t>promotionName</t>
+    <t>productSn</t>
   </si>
   <si>
     <t>productSkuId</t>
@@ -921,36 +933,24 @@
     <t>productQuantity</t>
   </si>
   <si>
-    <t>productSn</t>
-  </si>
-  <si>
     <t>productCategoryId</t>
   </si>
   <si>
-    <t>giftIntegration</t>
-  </si>
-  <si>
-    <t>realAmount</t>
-  </si>
-  <si>
-    <t>giftGrowth</t>
+    <t>finishOvertime</t>
+  </si>
+  <si>
+    <t>commentOvertime</t>
   </si>
   <si>
     <t>confirmOvertime</t>
   </si>
   <si>
-    <t>finishOvertime</t>
+    <t>normalOrderOvertime</t>
   </si>
   <si>
     <t>flashOrderOvertime</t>
   </si>
   <si>
-    <t>commentOvertime</t>
-  </si>
-  <si>
-    <t>normalOrderOvertime</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -963,12 +963,12 @@
     <t>memberNickname</t>
   </si>
   <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t>154</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>3</t>
@@ -6261,7 +6258,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6294,7 +6291,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>334</v>
@@ -6305,10 +6302,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
@@ -6316,10 +6313,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6">
@@ -6327,10 +6324,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
@@ -6338,10 +6335,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
@@ -6349,10 +6346,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -6360,10 +6357,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -6371,10 +6368,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11">
@@ -6382,10 +6379,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12">
@@ -6393,10 +6390,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
@@ -6404,10 +6401,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
@@ -6415,10 +6412,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
@@ -6426,10 +6423,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
@@ -6437,10 +6434,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17">
@@ -6448,10 +6445,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18">
@@ -6459,10 +6456,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19">
@@ -6470,10 +6467,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20">
@@ -6481,10 +6478,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
@@ -6492,10 +6489,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22">
@@ -6503,10 +6500,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23">
@@ -6514,10 +6511,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24">
@@ -6525,10 +6522,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25">
@@ -6536,10 +6533,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26">
@@ -6547,10 +6544,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27">
@@ -6558,10 +6555,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28">
@@ -6569,10 +6566,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29">
@@ -6580,10 +6577,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30">
@@ -6591,10 +6588,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31">
@@ -6602,10 +6599,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
@@ -6613,10 +6610,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
@@ -6624,10 +6621,10 @@
         <v>26</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
@@ -6635,10 +6632,10 @@
         <v>26</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
@@ -6646,10 +6643,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -6657,10 +6654,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -6668,10 +6665,10 @@
         <v>26</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38">
@@ -6679,10 +6676,10 @@
         <v>26</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39">
@@ -6690,10 +6687,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
@@ -6701,10 +6698,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -6712,10 +6709,10 @@
         <v>26</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
@@ -6723,10 +6720,10 @@
         <v>26</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -6734,10 +6731,10 @@
         <v>26</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
@@ -6745,10 +6742,10 @@
         <v>26</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
@@ -6756,10 +6753,10 @@
         <v>26</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46">
@@ -6767,10 +6764,10 @@
         <v>26</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -6778,10 +6775,10 @@
         <v>26</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
@@ -6789,10 +6786,10 @@
         <v>26</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
@@ -6800,10 +6797,10 @@
         <v>26</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50">
@@ -6811,10 +6808,10 @@
         <v>26</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
@@ -6822,10 +6819,10 @@
         <v>26</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52">
@@ -6833,10 +6830,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53">
@@ -6844,10 +6841,10 @@
         <v>26</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54">
@@ -6855,10 +6852,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55">
@@ -6866,10 +6863,10 @@
         <v>26</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56">
@@ -6877,10 +6874,10 @@
         <v>26</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57">
@@ -6888,7 +6885,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>335</v>
@@ -6896,13 +6893,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59">
@@ -6910,7 +6907,7 @@
         <v>86</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>334</v>
@@ -6921,10 +6918,10 @@
         <v>86</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61">
@@ -6932,10 +6929,10 @@
         <v>86</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62">
@@ -6943,10 +6940,10 @@
         <v>86</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63">
@@ -6954,10 +6951,10 @@
         <v>86</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64">
@@ -6965,10 +6962,10 @@
         <v>86</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65">
@@ -6976,10 +6973,10 @@
         <v>86</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66">
@@ -6987,10 +6984,10 @@
         <v>86</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
@@ -6998,10 +6995,10 @@
         <v>86</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
@@ -7009,10 +7006,10 @@
         <v>86</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
@@ -7020,10 +7017,10 @@
         <v>86</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70">
@@ -7031,10 +7028,10 @@
         <v>86</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71">
@@ -7042,10 +7039,10 @@
         <v>86</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72">
@@ -7053,10 +7050,10 @@
         <v>86</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73">
@@ -7064,10 +7061,10 @@
         <v>86</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74">
@@ -7075,10 +7072,10 @@
         <v>86</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75">
@@ -7086,10 +7083,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76">
@@ -7097,10 +7094,10 @@
         <v>86</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
@@ -7108,10 +7105,10 @@
         <v>86</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78">
@@ -7119,10 +7116,10 @@
         <v>86</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79">
@@ -7130,10 +7127,10 @@
         <v>86</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80">
@@ -7141,10 +7138,10 @@
         <v>86</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81">
@@ -7152,10 +7149,10 @@
         <v>86</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82">
@@ -7163,10 +7160,10 @@
         <v>86</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83">
@@ -7174,10 +7171,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84">
@@ -7185,10 +7182,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85">
@@ -7196,10 +7193,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86">
@@ -7207,10 +7204,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87">
@@ -7218,10 +7215,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88">
@@ -7229,10 +7226,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89">
@@ -7240,10 +7237,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90">
@@ -7251,10 +7248,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91">
@@ -7262,10 +7259,10 @@
         <v>86</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92">
@@ -7273,10 +7270,10 @@
         <v>86</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93">
@@ -7284,10 +7281,10 @@
         <v>86</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94">
@@ -7295,10 +7292,10 @@
         <v>86</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95">
@@ -7306,10 +7303,10 @@
         <v>86</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96">
@@ -7317,10 +7314,10 @@
         <v>86</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97">
@@ -7328,10 +7325,10 @@
         <v>86</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98">
@@ -7339,10 +7336,10 @@
         <v>86</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99">
@@ -7350,10 +7347,10 @@
         <v>86</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100">
@@ -7361,10 +7358,10 @@
         <v>86</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101">
@@ -7372,10 +7369,10 @@
         <v>86</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102">
@@ -7383,10 +7380,10 @@
         <v>86</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103">
@@ -7394,10 +7391,10 @@
         <v>86</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104">
@@ -7405,10 +7402,10 @@
         <v>86</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105">
@@ -7416,10 +7413,10 @@
         <v>86</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106">
@@ -7427,10 +7424,10 @@
         <v>86</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107">
@@ -7438,10 +7435,10 @@
         <v>86</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108">
@@ -7449,10 +7446,10 @@
         <v>86</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109">
@@ -7460,10 +7457,10 @@
         <v>86</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110">
@@ -7471,10 +7468,10 @@
         <v>86</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111">
@@ -7482,10 +7479,10 @@
         <v>86</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
@@ -7493,10 +7490,10 @@
         <v>86</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113">
@@ -7504,10 +7501,10 @@
         <v>86</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114">
@@ -7515,10 +7512,10 @@
         <v>86</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
@@ -7526,10 +7523,10 @@
         <v>86</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116">
@@ -7537,10 +7534,10 @@
         <v>86</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117">
@@ -7548,10 +7545,10 @@
         <v>86</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118">
@@ -7559,10 +7556,10 @@
         <v>86</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119">
@@ -7570,10 +7567,10 @@
         <v>86</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120">
@@ -7581,10 +7578,10 @@
         <v>86</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121">
@@ -7592,10 +7589,10 @@
         <v>86</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122">
@@ -7603,10 +7600,10 @@
         <v>86</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123">
@@ -7614,10 +7611,10 @@
         <v>86</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124">
@@ -7625,10 +7622,10 @@
         <v>86</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125">
@@ -7636,10 +7633,10 @@
         <v>86</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126">
@@ -7647,10 +7644,10 @@
         <v>86</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127">
@@ -7658,10 +7655,10 @@
         <v>86</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128">
@@ -7669,10 +7666,10 @@
         <v>86</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129">
@@ -7680,10 +7677,10 @@
         <v>86</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130">
@@ -7691,10 +7688,10 @@
         <v>86</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131">
@@ -7702,10 +7699,10 @@
         <v>86</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132">
@@ -7713,10 +7710,10 @@
         <v>86</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133">
@@ -7724,10 +7721,10 @@
         <v>86</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134">
@@ -7735,10 +7732,10 @@
         <v>86</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135">
@@ -7746,10 +7743,10 @@
         <v>86</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136">
@@ -7757,10 +7754,10 @@
         <v>86</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137">
@@ -7768,10 +7765,10 @@
         <v>86</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138">
@@ -7779,10 +7776,10 @@
         <v>86</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139">
@@ -7790,10 +7787,10 @@
         <v>86</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140">
@@ -7801,10 +7798,10 @@
         <v>86</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141">
@@ -7812,10 +7809,10 @@
         <v>86</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142">
@@ -7823,10 +7820,10 @@
         <v>86</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143">
@@ -7834,10 +7831,10 @@
         <v>86</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144">
@@ -7845,10 +7842,10 @@
         <v>86</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145">
@@ -7856,10 +7853,10 @@
         <v>86</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146">
@@ -7867,32 +7864,32 @@
         <v>86</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149">
@@ -7900,7 +7897,7 @@
         <v>164</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>334</v>
@@ -7911,10 +7908,10 @@
         <v>164</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151">
@@ -7922,10 +7919,10 @@
         <v>164</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152">
@@ -7933,10 +7930,10 @@
         <v>164</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153">
@@ -7944,10 +7941,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154">
@@ -7955,10 +7952,10 @@
         <v>164</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155">
@@ -7966,10 +7963,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156">
@@ -7977,43 +7974,43 @@
         <v>164</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160">
@@ -8021,7 +8018,7 @@
         <v>192</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>334</v>
@@ -8032,10 +8029,10 @@
         <v>192</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162">
@@ -8043,10 +8040,10 @@
         <v>192</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163">
@@ -8054,10 +8051,10 @@
         <v>192</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164">
@@ -8065,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165">
@@ -8076,10 +8073,10 @@
         <v>192</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166">
@@ -8087,10 +8084,10 @@
         <v>192</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167">
@@ -8098,10 +8095,10 @@
         <v>192</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168">
@@ -8109,10 +8106,10 @@
         <v>192</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169">
@@ -8120,10 +8117,10 @@
         <v>192</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170">
@@ -8131,10 +8128,10 @@
         <v>192</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171">
@@ -8142,10 +8139,10 @@
         <v>192</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172">
@@ -8153,10 +8150,10 @@
         <v>192</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="173">
@@ -8164,10 +8161,10 @@
         <v>192</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174">
@@ -8175,10 +8172,10 @@
         <v>192</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175">
@@ -8186,10 +8183,10 @@
         <v>192</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176">
@@ -8197,10 +8194,10 @@
         <v>192</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177">
@@ -8208,10 +8205,10 @@
         <v>192</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="178">
@@ -8219,10 +8216,10 @@
         <v>192</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179">
@@ -8230,10 +8227,10 @@
         <v>192</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="180">
@@ -8241,10 +8238,10 @@
         <v>192</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181">
@@ -8252,10 +8249,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182">
@@ -8263,10 +8260,10 @@
         <v>192</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183">
@@ -8274,10 +8271,10 @@
         <v>192</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184">
@@ -8285,10 +8282,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185">
@@ -8296,10 +8293,10 @@
         <v>192</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="186">
@@ -8307,10 +8304,10 @@
         <v>192</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187">
@@ -8318,10 +8315,10 @@
         <v>192</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188">
@@ -8329,10 +8326,10 @@
         <v>192</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189">
@@ -8340,10 +8337,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190">
@@ -8351,10 +8348,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="191">
@@ -8362,10 +8359,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="192">
@@ -8373,10 +8370,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193">
@@ -8384,10 +8381,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="194">
@@ -8395,10 +8392,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="195">
@@ -8406,10 +8403,10 @@
         <v>192</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196">
@@ -8417,10 +8414,10 @@
         <v>192</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197">
@@ -8428,10 +8425,10 @@
         <v>192</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="198">
@@ -8439,10 +8436,10 @@
         <v>192</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="199">
@@ -8450,54 +8447,54 @@
         <v>192</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204">
@@ -8505,7 +8502,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>334</v>
@@ -8516,10 +8513,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206">
@@ -8527,10 +8524,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="207">
@@ -8538,10 +8535,10 @@
         <v>204</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208">
@@ -8549,10 +8546,10 @@
         <v>204</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209">
@@ -8560,10 +8557,10 @@
         <v>204</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210">
@@ -8571,10 +8568,10 @@
         <v>204</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211">
@@ -8582,10 +8579,10 @@
         <v>204</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212">
@@ -8593,65 +8590,65 @@
         <v>204</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="218">
@@ -8659,7 +8656,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>334</v>
@@ -8670,10 +8667,10 @@
         <v>216</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220">
@@ -8681,10 +8678,10 @@
         <v>216</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="221">
@@ -8692,10 +8689,10 @@
         <v>216</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="222">
@@ -8703,10 +8700,10 @@
         <v>216</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="223">
@@ -8714,10 +8711,10 @@
         <v>216</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224">
@@ -8725,10 +8722,10 @@
         <v>216</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225">
@@ -8736,10 +8733,10 @@
         <v>216</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="226">
@@ -8747,10 +8744,10 @@
         <v>216</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="227">
@@ -8758,10 +8755,10 @@
         <v>216</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="228">
@@ -8769,10 +8766,10 @@
         <v>216</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229">
@@ -8780,10 +8777,10 @@
         <v>216</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230">
@@ -8791,10 +8788,10 @@
         <v>216</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="231">
@@ -8802,10 +8799,10 @@
         <v>216</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232">
@@ -8813,10 +8810,10 @@
         <v>216</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="233">
@@ -8824,10 +8821,10 @@
         <v>216</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234">
@@ -8835,10 +8832,10 @@
         <v>216</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235">
@@ -8846,10 +8843,10 @@
         <v>216</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236">
@@ -8857,10 +8854,10 @@
         <v>216</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237">
@@ -8868,10 +8865,10 @@
         <v>216</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238">
@@ -8879,10 +8876,10 @@
         <v>216</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239">
@@ -8890,10 +8887,10 @@
         <v>216</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240">
@@ -8901,10 +8898,10 @@
         <v>216</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241">
@@ -8912,10 +8909,10 @@
         <v>216</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="242">
@@ -8923,10 +8920,10 @@
         <v>216</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243">
@@ -8934,10 +8931,10 @@
         <v>216</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244">
@@ -8945,10 +8942,10 @@
         <v>216</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245">
@@ -8956,10 +8953,10 @@
         <v>216</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="246">
@@ -8967,10 +8964,10 @@
         <v>216</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="247">
@@ -8978,10 +8975,10 @@
         <v>216</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="248">
@@ -8989,10 +8986,10 @@
         <v>216</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249">
@@ -9000,76 +8997,10 @@
         <v>216</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B250" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C250" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B251" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="C251" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B252" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="C252" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B253" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C253" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B254" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C254" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="B255" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s" s="0">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -9151,7 +9082,7 @@
         <v>225</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -9179,7 +9110,7 @@
         <v>225</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -9193,7 +9124,7 @@
         <v>225</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -9207,7 +9138,7 @@
         <v>225</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -9221,7 +9152,7 @@
         <v>225</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -9249,7 +9180,7 @@
         <v>225</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -9263,7 +9194,7 @@
         <v>225</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -9305,7 +9236,7 @@
         <v>225</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -9319,7 +9250,7 @@
         <v>225</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -9361,7 +9292,7 @@
         <v>225</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -9375,7 +9306,7 @@
         <v>225</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -9389,7 +9320,7 @@
         <v>225</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -9403,7 +9334,7 @@
         <v>225</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -9431,7 +9362,7 @@
         <v>225</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -9473,7 +9404,7 @@
         <v>225</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -9501,7 +9432,7 @@
         <v>225</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -9529,7 +9460,7 @@
         <v>225</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -9537,7 +9468,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>225</v>
@@ -9551,7 +9482,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>225</v>
@@ -9565,13 +9496,13 @@
         <v>86</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -9579,13 +9510,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -9593,13 +9524,13 @@
         <v>86</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -9607,7 +9538,7 @@
         <v>86</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>225</v>
@@ -9621,7 +9552,7 @@
         <v>86</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>225</v>
@@ -9635,13 +9566,13 @@
         <v>86</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -9649,13 +9580,13 @@
         <v>86</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40">
@@ -9669,7 +9600,7 @@
         <v>225</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -9677,7 +9608,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>225</v>
@@ -9691,13 +9622,13 @@
         <v>86</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -9705,13 +9636,13 @@
         <v>86</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -9719,7 +9650,7 @@
         <v>86</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>225</v>
@@ -9733,13 +9664,13 @@
         <v>86</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -9747,13 +9678,13 @@
         <v>86</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -9761,13 +9692,13 @@
         <v>86</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>246</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -9781,7 +9712,7 @@
         <v>225</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -9795,7 +9726,7 @@
         <v>225</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -9809,7 +9740,7 @@
         <v>225</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -9817,13 +9748,13 @@
         <v>86</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -9831,13 +9762,13 @@
         <v>86</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -9845,13 +9776,13 @@
         <v>86</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -9859,7 +9790,7 @@
         <v>86</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>225</v>
@@ -9873,13 +9804,13 @@
         <v>86</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -9887,13 +9818,13 @@
         <v>86</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -9901,13 +9832,13 @@
         <v>86</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -9915,13 +9846,13 @@
         <v>86</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -9929,7 +9860,7 @@
         <v>86</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>225</v>
@@ -9943,13 +9874,13 @@
         <v>86</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -9957,7 +9888,7 @@
         <v>86</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>225</v>
@@ -9971,13 +9902,13 @@
         <v>86</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
@@ -9985,13 +9916,13 @@
         <v>86</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
@@ -9999,13 +9930,13 @@
         <v>86</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -10013,7 +9944,7 @@
         <v>86</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>225</v>
@@ -10027,7 +9958,7 @@
         <v>86</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>225</v>
@@ -10041,7 +9972,7 @@
         <v>86</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>225</v>
@@ -10061,7 +9992,7 @@
         <v>225</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -10075,7 +10006,7 @@
         <v>225</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -10089,7 +10020,7 @@
         <v>225</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
@@ -10117,7 +10048,7 @@
         <v>225</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -10131,7 +10062,7 @@
         <v>225</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
@@ -10145,7 +10076,7 @@
         <v>225</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -10159,7 +10090,7 @@
         <v>225</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
@@ -10167,7 +10098,7 @@
         <v>164</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>225</v>
@@ -10181,13 +10112,13 @@
         <v>164</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -10195,13 +10126,13 @@
         <v>164</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
@@ -10209,13 +10140,13 @@
         <v>164</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -10223,13 +10154,13 @@
         <v>192</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -10237,13 +10168,13 @@
         <v>192</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82">
@@ -10251,13 +10182,13 @@
         <v>192</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -10265,7 +10196,7 @@
         <v>192</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>225</v>
@@ -10279,13 +10210,13 @@
         <v>192</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85">
@@ -10293,13 +10224,13 @@
         <v>192</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -10307,7 +10238,7 @@
         <v>192</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>225</v>
@@ -10321,13 +10252,13 @@
         <v>192</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88">
@@ -10335,7 +10266,7 @@
         <v>192</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>225</v>
@@ -10349,13 +10280,13 @@
         <v>192</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -10377,13 +10308,13 @@
         <v>192</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>246</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92">
@@ -10391,7 +10322,7 @@
         <v>192</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>225</v>
@@ -10405,13 +10336,13 @@
         <v>192</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -10419,13 +10350,13 @@
         <v>192</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -10433,13 +10364,13 @@
         <v>192</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -10447,13 +10378,13 @@
         <v>192</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -10461,13 +10392,13 @@
         <v>192</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -10475,13 +10406,13 @@
         <v>192</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -10495,7 +10426,7 @@
         <v>225</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -10503,7 +10434,7 @@
         <v>192</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>225</v>
@@ -10517,13 +10448,13 @@
         <v>192</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102">
@@ -10531,13 +10462,13 @@
         <v>204</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>246</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -10545,7 +10476,7 @@
         <v>204</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>225</v>
@@ -10559,7 +10490,7 @@
         <v>204</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>225</v>
@@ -10573,13 +10504,13 @@
         <v>204</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>41</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106">
@@ -10601,13 +10532,13 @@
         <v>204</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -10615,13 +10546,13 @@
         <v>204</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -10643,13 +10574,13 @@
         <v>216</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -10657,7 +10588,7 @@
         <v>216</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>225</v>
@@ -10671,13 +10602,13 @@
         <v>216</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113">
@@ -10685,13 +10616,13 @@
         <v>216</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -10699,7 +10630,7 @@
         <v>216</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>225</v>
@@ -10713,13 +10644,13 @@
         <v>216</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
@@ -10727,13 +10658,13 @@
         <v>216</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -10741,13 +10672,13 @@
         <v>216</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -10755,13 +10686,13 @@
         <v>216</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -10769,13 +10700,13 @@
         <v>216</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120">
@@ -10789,7 +10720,7 @@
         <v>225</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -10797,7 +10728,7 @@
         <v>216</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>225</v>
@@ -10811,13 +10742,13 @@
         <v>216</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123">
@@ -10825,13 +10756,13 @@
         <v>216</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -10839,13 +10770,13 @@
         <v>216</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
@@ -10853,13 +10784,13 @@
         <v>216</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -10867,7 +10798,7 @@
         <v>216</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>225</v>
@@ -10881,13 +10812,13 @@
         <v>216</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>225</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -11051,7 +10982,7 @@
         <v>216</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>326</v>
@@ -11068,7 +10999,7 @@
         <v>216</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>326</v>
@@ -11085,7 +11016,7 @@
         <v>216</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>326</v>
@@ -11102,7 +11033,7 @@
         <v>216</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>326</v>
@@ -11119,7 +11050,7 @@
         <v>216</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>326</v>
@@ -11136,7 +11067,7 @@
         <v>216</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>326</v>
@@ -11187,7 +11118,7 @@
         <v>216</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>326</v>
@@ -11204,7 +11135,7 @@
         <v>216</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>326</v>
@@ -11221,7 +11152,7 @@
         <v>216</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>326</v>
@@ -11238,7 +11169,7 @@
         <v>216</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>326</v>
@@ -11272,7 +11203,7 @@
         <v>216</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>326</v>
@@ -11289,7 +11220,7 @@
         <v>216</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>326</v>
@@ -11306,7 +11237,7 @@
         <v>216</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>326</v>
@@ -11323,7 +11254,7 @@
         <v>216</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>326</v>
@@ -11340,7 +11271,7 @@
         <v>216</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>326</v>
@@ -11357,7 +11288,7 @@
         <v>216</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>326</v>
@@ -11374,7 +11305,7 @@
         <v>216</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>326</v>
@@ -11408,7 +11339,7 @@
         <v>216</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>326</v>
@@ -11425,7 +11356,7 @@
         <v>216</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>326</v>
@@ -11442,7 +11373,7 @@
         <v>216</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>326</v>
@@ -11459,7 +11390,7 @@
         <v>216</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>326</v>
@@ -11476,7 +11407,7 @@
         <v>216</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>326</v>
@@ -11510,7 +11441,7 @@
         <v>216</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>326</v>
@@ -11544,7 +11475,7 @@
         <v>216</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>326</v>
@@ -11578,7 +11509,7 @@
         <v>216</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>326</v>
@@ -11612,7 +11543,7 @@
         <v>216</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>326</v>
@@ -11629,7 +11560,7 @@
         <v>216</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>326</v>
@@ -11646,7 +11577,7 @@
         <v>216</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>326</v>
@@ -11663,7 +11594,7 @@
         <v>216</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E38" t="s" s="0">
         <v>326</v>
@@ -11680,7 +11611,7 @@
         <v>216</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>326</v>
@@ -11697,7 +11628,7 @@
         <v>216</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>326</v>
@@ -11714,7 +11645,7 @@
         <v>216</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>326</v>
@@ -11731,7 +11662,7 @@
         <v>216</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E42" t="s" s="0">
         <v>326</v>
@@ -11748,7 +11679,7 @@
         <v>216</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s" s="0">
         <v>326</v>
@@ -11782,7 +11713,7 @@
         <v>216</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E45" t="s" s="0">
         <v>326</v>
@@ -11799,7 +11730,7 @@
         <v>216</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s" s="0">
         <v>326</v>
@@ -11816,7 +11747,7 @@
         <v>216</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E47" t="s" s="0">
         <v>326</v>
@@ -11850,7 +11781,7 @@
         <v>216</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s" s="0">
         <v>326</v>
@@ -11867,7 +11798,7 @@
         <v>216</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E50" t="s" s="0">
         <v>326</v>
@@ -11884,7 +11815,7 @@
         <v>216</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E51" t="s" s="0">
         <v>326</v>
@@ -11901,7 +11832,7 @@
         <v>216</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s" s="0">
         <v>326</v>
@@ -11935,7 +11866,7 @@
         <v>216</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s" s="0">
         <v>326</v>
